--- a/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA7E1A3-8441-447A-B895-DF3FDD2578C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17EA5FD-041F-431D-9E4C-E355B88A9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DE3FC88-076E-46FD-BA74-57024073BB60}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A621846B-C53D-4754-8464-A150A00117BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="456">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,1348 +74,1333 @@
     <t>28,11%</t>
   </si>
   <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>No en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>No en los últimos 12 meses</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1830,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEB659C-302A-436C-8996-D5E324FAB2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C67DAF-1806-47D4-BFA3-D9027E3C500F}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2688,10 +2673,10 @@
         <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2700,13 +2685,13 @@
         <v>24879</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,10 +2706,10 @@
         <v>7170</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>137</v>
@@ -2981,10 +2966,10 @@
         <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -2993,13 +2978,13 @@
         <v>60858</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -3008,13 +2993,13 @@
         <v>99231</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3014,13 @@
         <v>116907</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -3044,13 +3029,13 @@
         <v>67444</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -3059,13 +3044,13 @@
         <v>184350</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3065,13 @@
         <v>80734</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3095,13 +3080,13 @@
         <v>22326</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -3110,13 +3095,13 @@
         <v>103059</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3119,10 @@
         <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3146,13 +3131,13 @@
         <v>3459</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -3161,13 +3146,13 @@
         <v>27486</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3167,13 @@
         <v>15065</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3197,13 +3182,13 @@
         <v>2654</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3212,13 +3197,13 @@
         <v>17719</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3218,13 @@
         <v>11178</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3248,13 +3233,13 @@
         <v>2449</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3266,10 +3251,10 @@
         <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3269,13 @@
         <v>1173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3320,7 +3305,7 @@
         <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3326,7 @@
         <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3356,7 +3341,7 @@
         <v>72</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3371,7 +3356,7 @@
         <v>72</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3401,13 +3386,13 @@
         <v>848</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3416,13 +3401,13 @@
         <v>2014</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,7 +3463,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3490,13 +3475,13 @@
         <v>80605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
@@ -3505,13 +3490,13 @@
         <v>80647</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>217</v>
@@ -3520,13 +3505,13 @@
         <v>161252</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3526,13 @@
         <v>156581</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -3556,13 +3541,13 @@
         <v>74533</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -3571,13 +3556,13 @@
         <v>231114</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3577,13 @@
         <v>68890</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3607,13 +3592,13 @@
         <v>30555</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>111</v>
@@ -3622,13 +3607,13 @@
         <v>99446</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3628,13 @@
         <v>16946</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3658,13 +3643,13 @@
         <v>6621</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -3673,13 +3658,13 @@
         <v>23567</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3679,13 @@
         <v>9210</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -3709,13 +3694,13 @@
         <v>6053</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -3724,13 +3709,13 @@
         <v>15263</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3730,13 @@
         <v>14633</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -3760,13 +3745,13 @@
         <v>2932</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>17</v>
@@ -3775,13 +3760,13 @@
         <v>17565</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3781,13 @@
         <v>898</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3817,7 +3802,7 @@
         <v>72</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3826,13 +3811,13 @@
         <v>898</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3838,7 @@
         <v>72</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3868,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3883,7 +3868,7 @@
         <v>72</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3883,13 @@
         <v>4963</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3913,13 +3898,13 @@
         <v>785</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -3928,13 +3913,13 @@
         <v>5749</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +3975,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4002,13 +3987,13 @@
         <v>46134</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H44" s="7">
         <v>119</v>
@@ -4017,13 +4002,13 @@
         <v>71964</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M44" s="7">
         <v>174</v>
@@ -4032,13 +4017,13 @@
         <v>118098</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4038,13 @@
         <v>126416</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
@@ -4068,13 +4053,13 @@
         <v>43113</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M45" s="7">
         <v>208</v>
@@ -4083,13 +4068,13 @@
         <v>169529</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4089,13 @@
         <v>52887</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -4119,13 +4104,13 @@
         <v>17343</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>86</v>
@@ -4134,13 +4119,13 @@
         <v>70230</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4140,13 @@
         <v>26817</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -4170,13 +4155,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" s="7">
         <v>35</v>
@@ -4185,13 +4170,13 @@
         <v>31453</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4191,13 @@
         <v>6117</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
@@ -4221,13 +4206,13 @@
         <v>1865</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M48" s="7">
         <v>10</v>
@@ -4236,10 +4221,10 @@
         <v>7982</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>320</v>
@@ -4257,10 +4242,10 @@
         <v>8525</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>322</v>
@@ -4293,7 +4278,7 @@
         <v>326</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4293,7 @@
         <v>2230</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>149</v>
@@ -4323,13 +4308,13 @@
         <v>1307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4338,13 +4323,13 @@
         <v>3537</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,10 +4344,10 @@
         <v>3704</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>334</v>
@@ -4380,7 +4365,7 @@
         <v>72</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4389,13 +4374,13 @@
         <v>3704</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4395,13 @@
         <v>3889</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -4425,13 +4410,13 @@
         <v>1310</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="M52" s="7">
         <v>6</v>
@@ -4443,10 +4428,10 @@
         <v>144</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4487,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -4514,13 +4499,13 @@
         <v>83140</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>111</v>
@@ -4529,13 +4514,13 @@
         <v>170038</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>236</v>
@@ -4544,13 +4529,13 @@
         <v>253177</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4550,13 @@
         <v>149468</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H55" s="7">
         <v>64</v>
@@ -4580,13 +4565,13 @@
         <v>33855</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M55" s="7">
         <v>284</v>
@@ -4595,13 +4580,13 @@
         <v>183323</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4601,13 @@
         <v>39156</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H56" s="7">
         <v>16</v>
@@ -4631,13 +4616,13 @@
         <v>8537</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>73</v>
@@ -4646,13 +4631,13 @@
         <v>47692</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4652,13 @@
         <v>12632</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H57" s="7">
         <v>6</v>
@@ -4682,13 +4667,13 @@
         <v>3138</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
@@ -4697,13 +4682,13 @@
         <v>15769</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4703,13 @@
         <v>5495</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4733,7 +4718,7 @@
         <v>631</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>71</v>
@@ -4748,13 +4733,13 @@
         <v>6126</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4754,13 @@
         <v>4943</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H59" s="7">
         <v>4</v>
@@ -4784,13 +4769,13 @@
         <v>2322</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M59" s="7">
         <v>11</v>
@@ -4799,13 +4784,13 @@
         <v>7265</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4835,7 @@
         <v>2179</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>388</v>
@@ -4877,7 +4862,7 @@
         <v>71</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4892,7 +4877,7 @@
         <v>72</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>391</v>
+        <v>139</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4901,13 +4886,13 @@
         <v>1230</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4907,13 @@
         <v>6091</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4937,13 +4922,13 @@
         <v>3788</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M62" s="7">
         <v>12</v>
@@ -4952,13 +4937,13 @@
         <v>9879</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5011,13 @@
         <v>332365</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H64" s="7">
         <v>521</v>
@@ -5041,13 +5026,13 @@
         <v>471221</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M64" s="7">
         <v>859</v>
@@ -5056,13 +5041,13 @@
         <v>803586</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5062,13 @@
         <v>663446</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H65" s="7">
         <v>396</v>
@@ -5092,13 +5077,13 @@
         <v>287385</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M65" s="7">
         <v>1077</v>
@@ -5107,13 +5092,13 @@
         <v>950831</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5113,13 @@
         <v>343022</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
       <c r="H66" s="7">
         <v>172</v>
@@ -5143,13 +5128,13 @@
         <v>141885</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M66" s="7">
         <v>487</v>
@@ -5158,13 +5143,13 @@
         <v>484907</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5164,13 @@
         <v>116129</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H67" s="7">
         <v>43</v>
@@ -5194,13 +5179,13 @@
         <v>31324</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>128</v>
+        <v>426</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M67" s="7">
         <v>143</v>
@@ -5209,13 +5194,13 @@
         <v>147453</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>433</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5215,13 @@
         <v>65450</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="H68" s="7">
         <v>30</v>
@@ -5245,13 +5230,13 @@
         <v>27377</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M68" s="7">
         <v>89</v>
@@ -5260,13 +5245,13 @@
         <v>92827</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5266,13 @@
         <v>55375</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>252</v>
+        <v>440</v>
       </c>
       <c r="H69" s="7">
         <v>26</v>
@@ -5296,13 +5281,13 @@
         <v>23191</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="M69" s="7">
         <v>74</v>
@@ -5311,13 +5296,13 @@
         <v>78566</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5317,13 @@
         <v>5989</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H70" s="7">
         <v>6</v>
@@ -5347,13 +5332,13 @@
         <v>4522</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>268</v>
+        <v>385</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M70" s="7">
         <v>14</v>
@@ -5368,7 +5353,7 @@
         <v>387</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5368,13 @@
         <v>6731</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>452</v>
+        <v>374</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5404,7 +5389,7 @@
         <v>72</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M71" s="7">
         <v>6</v>
@@ -5413,13 +5398,13 @@
         <v>6731</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5419,13 @@
         <v>20377</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="H72" s="7">
         <v>7</v>
@@ -5449,13 +5434,13 @@
         <v>6731</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="M72" s="7">
         <v>30</v>
@@ -5464,13 +5449,13 @@
         <v>27108</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>207</v>
+        <v>453</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5511,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17EA5FD-041F-431D-9E4C-E355B88A9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C1A308-062D-4D8D-8E95-AD6B0ABDB2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A621846B-C53D-4754-8464-A150A00117BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F20375EB-F366-47EF-8521-86469E3353B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1815,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C67DAF-1806-47D4-BFA3-D9027E3C500F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B29EC62-9FF0-47AF-B307-852EEE0AB500}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C1A308-062D-4D8D-8E95-AD6B0ABDB2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24A1C2F-B3FD-4C85-9F75-42A5E4401D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F20375EB-F366-47EF-8521-86469E3353B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8A58A82-BD93-4423-84B5-CB4249891108}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="461">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,1333 +74,1348 @@
     <t>28,11%</t>
   </si>
   <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>No en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>28,08%</t>
   </si>
   <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>No en los últimos 12 meses</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1815,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B29EC62-9FF0-47AF-B307-852EEE0AB500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE353C-9A7C-4750-B577-25CBE80881EB}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2673,10 +2688,10 @@
         <v>130</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2685,13 +2700,13 @@
         <v>24879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,10 +2721,10 @@
         <v>7170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>137</v>
@@ -2966,10 +2981,10 @@
         <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -2978,13 +2993,13 @@
         <v>60858</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -2993,13 +3008,13 @@
         <v>99231</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3029,13 @@
         <v>116907</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -3029,13 +3044,13 @@
         <v>67444</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>201</v>
@@ -3044,13 +3059,13 @@
         <v>184350</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3080,13 @@
         <v>80734</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3080,13 +3095,13 @@
         <v>22326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -3095,13 +3110,13 @@
         <v>103059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3134,10 @@
         <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -3131,13 +3146,13 @@
         <v>3459</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
@@ -3146,13 +3161,13 @@
         <v>27486</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3182,13 @@
         <v>15065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3182,13 +3197,13 @@
         <v>2654</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3197,13 +3212,13 @@
         <v>17719</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3233,13 @@
         <v>11178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3233,13 +3248,13 @@
         <v>2449</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3251,10 +3266,10 @@
         <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3284,13 @@
         <v>1173</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3305,7 +3320,7 @@
         <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3341,7 @@
         <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3341,7 +3356,7 @@
         <v>72</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3356,7 +3371,7 @@
         <v>72</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3392,7 @@
         <v>71</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3386,13 +3401,13 @@
         <v>848</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3401,13 +3416,13 @@
         <v>2014</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,7 +3478,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3475,13 +3490,13 @@
         <v>80605</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
@@ -3490,13 +3505,13 @@
         <v>80647</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>217</v>
@@ -3505,13 +3520,13 @@
         <v>161252</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3541,13 @@
         <v>156581</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -3541,13 +3556,13 @@
         <v>74533</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -3556,13 +3571,13 @@
         <v>231114</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3592,13 @@
         <v>68890</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3592,13 +3607,13 @@
         <v>30555</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>111</v>
@@ -3607,13 +3622,13 @@
         <v>99446</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3643,13 @@
         <v>16946</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3643,13 +3658,13 @@
         <v>6621</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -3658,13 +3673,13 @@
         <v>23567</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3694,13 @@
         <v>9210</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -3694,13 +3709,13 @@
         <v>6053</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -3709,13 +3724,13 @@
         <v>15263</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3745,13 @@
         <v>14633</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -3745,13 +3760,13 @@
         <v>2932</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>17</v>
@@ -3760,13 +3775,13 @@
         <v>17565</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3796,13 @@
         <v>898</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3802,7 +3817,7 @@
         <v>72</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3811,13 +3826,13 @@
         <v>898</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3853,7 @@
         <v>72</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3853,7 +3868,7 @@
         <v>72</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3868,7 +3883,7 @@
         <v>72</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3898,13 @@
         <v>4963</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3898,13 +3913,13 @@
         <v>785</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -3913,13 +3928,13 @@
         <v>5749</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3990,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3987,13 +4002,13 @@
         <v>46134</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>119</v>
@@ -4002,13 +4017,13 @@
         <v>71964</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M44" s="7">
         <v>174</v>
@@ -4017,13 +4032,13 @@
         <v>118098</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4053,13 @@
         <v>126416</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
@@ -4053,13 +4068,13 @@
         <v>43113</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M45" s="7">
         <v>208</v>
@@ -4068,13 +4083,13 @@
         <v>169529</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4104,13 @@
         <v>52887</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -4104,13 +4119,13 @@
         <v>17343</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>86</v>
@@ -4119,13 +4134,13 @@
         <v>70230</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4155,13 @@
         <v>26817</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -4155,13 +4170,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M47" s="7">
         <v>35</v>
@@ -4170,13 +4185,13 @@
         <v>31453</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4206,13 @@
         <v>6117</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
@@ -4206,13 +4221,13 @@
         <v>1865</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M48" s="7">
         <v>10</v>
@@ -4221,10 +4236,10 @@
         <v>7982</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>320</v>
@@ -4242,10 +4257,10 @@
         <v>8525</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>322</v>
@@ -4278,7 +4293,7 @@
         <v>326</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,7 +4308,7 @@
         <v>2230</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>149</v>
@@ -4308,13 +4323,13 @@
         <v>1307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4323,13 +4338,13 @@
         <v>3537</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,10 +4359,10 @@
         <v>3704</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>334</v>
@@ -4365,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4374,13 +4389,13 @@
         <v>3704</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4410,13 @@
         <v>3889</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -4410,13 +4425,13 @@
         <v>1310</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="M52" s="7">
         <v>6</v>
@@ -4428,10 +4443,10 @@
         <v>144</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4502,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
@@ -4499,13 +4514,13 @@
         <v>83140</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>111</v>
@@ -4514,13 +4529,13 @@
         <v>170038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>236</v>
@@ -4529,13 +4544,13 @@
         <v>253177</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4565,13 @@
         <v>149468</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H55" s="7">
         <v>64</v>
@@ -4565,13 +4580,13 @@
         <v>33855</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M55" s="7">
         <v>284</v>
@@ -4580,13 +4595,13 @@
         <v>183323</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4616,13 @@
         <v>39156</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H56" s="7">
         <v>16</v>
@@ -4616,13 +4631,13 @@
         <v>8537</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M56" s="7">
         <v>73</v>
@@ -4631,13 +4646,13 @@
         <v>47692</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4667,13 @@
         <v>12632</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H57" s="7">
         <v>6</v>
@@ -4667,13 +4682,13 @@
         <v>3138</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
@@ -4682,13 +4697,13 @@
         <v>15769</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4718,13 @@
         <v>5495</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -4718,7 +4733,7 @@
         <v>631</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>71</v>
@@ -4733,13 +4748,13 @@
         <v>6126</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4769,13 @@
         <v>4943</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H59" s="7">
         <v>4</v>
@@ -4769,13 +4784,13 @@
         <v>2322</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M59" s="7">
         <v>11</v>
@@ -4784,13 +4799,13 @@
         <v>7265</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4850,7 @@
         <v>2179</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>388</v>
@@ -4862,7 +4877,7 @@
         <v>71</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4877,7 +4892,7 @@
         <v>72</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4886,13 +4901,13 @@
         <v>1230</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4922,13 @@
         <v>6091</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -4922,13 +4937,13 @@
         <v>3788</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M62" s="7">
         <v>12</v>
@@ -4937,13 +4952,13 @@
         <v>9879</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5026,13 @@
         <v>332365</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H64" s="7">
         <v>521</v>
@@ -5026,13 +5041,13 @@
         <v>471221</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>161</v>
+        <v>403</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M64" s="7">
         <v>859</v>
@@ -5041,13 +5056,13 @@
         <v>803586</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5077,13 @@
         <v>663446</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H65" s="7">
         <v>396</v>
@@ -5077,13 +5092,13 @@
         <v>287385</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M65" s="7">
         <v>1077</v>
@@ -5092,13 +5107,13 @@
         <v>950831</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5128,13 @@
         <v>343022</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>293</v>
+        <v>420</v>
       </c>
       <c r="H66" s="7">
         <v>172</v>
@@ -5128,13 +5143,13 @@
         <v>141885</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M66" s="7">
         <v>487</v>
@@ -5143,13 +5158,13 @@
         <v>484907</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5179,13 @@
         <v>116129</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H67" s="7">
         <v>43</v>
@@ -5179,13 +5194,13 @@
         <v>31324</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M67" s="7">
         <v>143</v>
@@ -5194,13 +5209,13 @@
         <v>147453</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>317</v>
+        <v>432</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5230,13 @@
         <v>65450</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>432</v>
+        <v>255</v>
       </c>
       <c r="H68" s="7">
         <v>30</v>
@@ -5230,13 +5245,13 @@
         <v>27377</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M68" s="7">
         <v>89</v>
@@ -5245,13 +5260,13 @@
         <v>92827</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5281,13 @@
         <v>55375</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="H69" s="7">
         <v>26</v>
@@ -5281,13 +5296,13 @@
         <v>23191</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="M69" s="7">
         <v>74</v>
@@ -5296,13 +5311,13 @@
         <v>78566</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>133</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5332,13 @@
         <v>5989</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>272</v>
+        <v>448</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H70" s="7">
         <v>6</v>
@@ -5332,13 +5347,13 @@
         <v>4522</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M70" s="7">
         <v>14</v>
@@ -5353,7 +5368,7 @@
         <v>387</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>447</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5383,13 @@
         <v>6731</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="G71" s="7" t="s">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5389,7 +5404,7 @@
         <v>72</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M71" s="7">
         <v>6</v>
@@ -5398,13 +5413,13 @@
         <v>6731</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>204</v>
+        <v>454</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5434,13 @@
         <v>20377</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="H72" s="7">
         <v>7</v>
@@ -5434,13 +5449,13 @@
         <v>6731</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="M72" s="7">
         <v>30</v>
@@ -5449,13 +5464,13 @@
         <v>27108</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>453</v>
+        <v>207</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5526,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24A1C2F-B3FD-4C85-9F75-42A5E4401D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D56E3DC-6D58-4740-AB02-860DF43D6EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8A58A82-BD93-4423-84B5-CB4249891108}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD85BE28-0C2F-47BC-887A-62E30BF8F43F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="501">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -65,1357 +65,1477 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca en toda mi vida</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>Menos de una vez al mes</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>29,28%</t>
+    <t>29,93%</t>
   </si>
   <si>
     <t>Una vez al mes</t>
   </si>
   <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1830,8 +1950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE353C-9A7C-4750-B577-25CBE80881EB}">
-  <dimension ref="A1:Q74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A3B14B-9D26-4FF2-AAB5-8E9CB830A57F}">
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1951,7 +2071,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>45321</v>
+        <v>54227</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1966,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>46898</v>
+        <v>43008</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1981,7 +2101,7 @@
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>92218</v>
+        <v>97235</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2002,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>42751</v>
+        <v>42445</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2017,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>18623</v>
+        <v>15828</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2032,7 +2152,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>61374</v>
+        <v>58272</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2053,7 +2173,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>30533</v>
+        <v>33023</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2068,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>26521</v>
+        <v>23519</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2083,7 +2203,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>57053</v>
+        <v>56543</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2104,7 +2224,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>14408</v>
+        <v>14565</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2119,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3338</v>
+        <v>3144</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2134,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>17745</v>
+        <v>17708</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2155,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>14108</v>
+        <v>12451</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2170,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>6750</v>
+        <v>6121</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2185,7 +2305,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>20857</v>
+        <v>18571</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2206,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>8927</v>
+        <v>8732</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>61</v>
@@ -2221,7 +2341,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>8138</v>
+        <v>7149</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>64</v>
@@ -2236,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>17064</v>
+        <v>15881</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>67</v>
@@ -2272,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2564</v>
+        <v>2082</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>74</v>
@@ -2287,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2564</v>
+        <v>2082</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>76</v>
@@ -2308,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1796</v>
+        <v>1554</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>79</v>
@@ -2338,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1796</v>
+        <v>1554</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>82</v>
@@ -2359,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>3373</v>
+        <v>2906</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>85</v>
@@ -2389,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3373</v>
+        <v>2906</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>87</v>
@@ -2410,7 +2530,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2425,7 +2545,7 @@
         <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>89</v>
@@ -2440,7 +2560,7 @@
         <v>137</v>
       </c>
       <c r="N13" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>89</v>
@@ -2463,7 +2583,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>38792</v>
+        <v>42091</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>91</v>
@@ -2478,7 +2598,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>40818</v>
+        <v>41106</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>94</v>
@@ -2493,7 +2613,7 @@
         <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>79611</v>
+        <v>83197</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>97</v>
@@ -2514,7 +2634,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>71324</v>
+        <v>72683</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>100</v>
@@ -2529,7 +2649,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>49818</v>
+        <v>44590</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>103</v>
@@ -2544,7 +2664,7 @@
         <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>121141</v>
+        <v>117272</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>106</v>
@@ -2565,7 +2685,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>70823</v>
+        <v>68649</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>109</v>
@@ -2580,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>36603</v>
+        <v>33608</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>112</v>
@@ -2595,7 +2715,7 @@
         <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>107426</v>
+        <v>102257</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>115</v>
@@ -2616,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>21299</v>
+        <v>22084</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>118</v>
@@ -2631,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>10133</v>
+        <v>9410</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>121</v>
@@ -2646,7 +2766,7 @@
         <v>23</v>
       </c>
       <c r="N17" s="7">
-        <v>31433</v>
+        <v>31493</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>124</v>
@@ -2667,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>15455</v>
+        <v>15254</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>127</v>
@@ -2682,7 +2802,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>9424</v>
+        <v>8843</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>130</v>
@@ -2697,7 +2817,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>24879</v>
+        <v>24097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>133</v>
@@ -2718,40 +2838,40 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>7170</v>
+        <v>6851</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>5075</v>
+        <v>4697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>12245</v>
+        <v>11549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>142</v>
@@ -2871,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>147</v>
@@ -2901,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -2922,7 +3042,7 @@
         <v>154</v>
       </c>
       <c r="D23" s="7">
-        <v>225758</v>
+        <v>228470</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>89</v>
@@ -2937,7 +3057,7 @@
         <v>141</v>
       </c>
       <c r="I23" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>89</v>
@@ -2952,7 +3072,7 @@
         <v>295</v>
       </c>
       <c r="N23" s="7">
-        <v>377629</v>
+        <v>370723</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>89</v>
@@ -2975,7 +3095,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>38373</v>
+        <v>40030</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -2990,7 +3110,7 @@
         <v>90</v>
       </c>
       <c r="I24" s="7">
-        <v>60858</v>
+        <v>59128</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>155</v>
@@ -3005,7 +3125,7 @@
         <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>99231</v>
+        <v>99158</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>158</v>
@@ -3026,7 +3146,7 @@
         <v>110</v>
       </c>
       <c r="D25" s="7">
-        <v>116907</v>
+        <v>114897</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>161</v>
@@ -3041,7 +3161,7 @@
         <v>91</v>
       </c>
       <c r="I25" s="7">
-        <v>67444</v>
+        <v>62049</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>164</v>
@@ -3056,7 +3176,7 @@
         <v>201</v>
       </c>
       <c r="N25" s="7">
-        <v>184350</v>
+        <v>176946</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>167</v>
@@ -3077,7 +3197,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="7">
-        <v>80734</v>
+        <v>77057</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>170</v>
@@ -3092,7 +3212,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>22326</v>
+        <v>20845</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>173</v>
@@ -3107,7 +3227,7 @@
         <v>106</v>
       </c>
       <c r="N26" s="7">
-        <v>103059</v>
+        <v>97902</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>176</v>
@@ -3128,43 +3248,43 @@
         <v>23</v>
       </c>
       <c r="D27" s="7">
-        <v>24028</v>
+        <v>23342</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>3459</v>
+        <v>3340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>30</v>
       </c>
       <c r="N27" s="7">
-        <v>27486</v>
+        <v>26682</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>186</v>
@@ -3179,46 +3299,46 @@
         <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>15065</v>
+        <v>14355</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2654</v>
+        <v>2386</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
       </c>
       <c r="N28" s="7">
-        <v>17719</v>
+        <v>16741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,46 +3350,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>11178</v>
+        <v>10330</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>2449</v>
+        <v>2183</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>13627</v>
+        <v>12513</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,46 +3401,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1173</v>
+        <v>1019</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>1333</v>
+        <v>1181</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,7 +3461,7 @@
         <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3356,7 +3476,7 @@
         <v>72</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3371,7 +3491,7 @@
         <v>72</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,46 +3503,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>848</v>
+        <v>722</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>2014</v>
+        <v>1874</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3554,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>288623</v>
+        <v>282183</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>89</v>
@@ -3449,7 +3569,7 @@
         <v>229</v>
       </c>
       <c r="I33" s="7">
-        <v>160197</v>
+        <v>150814</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>89</v>
@@ -3464,7 +3584,7 @@
         <v>499</v>
       </c>
       <c r="N33" s="7">
-        <v>448819</v>
+        <v>432997</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>89</v>
@@ -3478,7 +3598,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3487,46 +3607,46 @@
         <v>83</v>
       </c>
       <c r="D34" s="7">
-        <v>80605</v>
+        <v>82108</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>134</v>
       </c>
       <c r="I34" s="7">
-        <v>80647</v>
+        <v>77172</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>217</v>
       </c>
       <c r="N34" s="7">
-        <v>161252</v>
+        <v>159280</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,46 +3658,46 @@
         <v>147</v>
       </c>
       <c r="D35" s="7">
-        <v>156581</v>
+        <v>150189</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
       </c>
       <c r="I35" s="7">
-        <v>74533</v>
+        <v>69391</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
       </c>
       <c r="N35" s="7">
-        <v>231114</v>
+        <v>219580</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,46 +3709,46 @@
         <v>63</v>
       </c>
       <c r="D36" s="7">
-        <v>68890</v>
+        <v>63134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
       </c>
       <c r="I36" s="7">
-        <v>30555</v>
+        <v>28272</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>111</v>
       </c>
       <c r="N36" s="7">
-        <v>99446</v>
+        <v>91406</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,46 +3760,46 @@
         <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>16946</v>
+        <v>20171</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>6621</v>
+        <v>5929</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
       </c>
       <c r="N37" s="7">
-        <v>23567</v>
+        <v>26100</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,46 +3811,46 @@
         <v>10</v>
       </c>
       <c r="D38" s="7">
-        <v>9210</v>
+        <v>8676</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
       </c>
       <c r="I38" s="7">
-        <v>6053</v>
+        <v>5659</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
       </c>
       <c r="N38" s="7">
-        <v>15263</v>
+        <v>14334</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,46 +3862,46 @@
         <v>13</v>
       </c>
       <c r="D39" s="7">
-        <v>14633</v>
+        <v>13470</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
       </c>
       <c r="I39" s="7">
-        <v>2932</v>
+        <v>2708</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>17</v>
       </c>
       <c r="N39" s="7">
-        <v>17565</v>
+        <v>16178</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,16 +3913,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3817,22 +3937,22 @@
         <v>72</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3973,7 @@
         <v>72</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3868,7 +3988,7 @@
         <v>72</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3883,7 +4003,7 @@
         <v>72</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,46 +4015,46 @@
         <v>5</v>
       </c>
       <c r="D42" s="7">
-        <v>4963</v>
+        <v>4580</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
       </c>
       <c r="N42" s="7">
-        <v>5749</v>
+        <v>5250</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +4066,7 @@
         <v>334</v>
       </c>
       <c r="D43" s="7">
-        <v>352726</v>
+        <v>343191</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>89</v>
@@ -3961,7 +4081,7 @@
         <v>320</v>
       </c>
       <c r="I43" s="7">
-        <v>202127</v>
+        <v>189801</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>89</v>
@@ -3976,7 +4096,7 @@
         <v>654</v>
       </c>
       <c r="N43" s="7">
-        <v>554853</v>
+        <v>532992</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>89</v>
@@ -3990,7 +4110,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3999,46 +4119,46 @@
         <v>55</v>
       </c>
       <c r="D44" s="7">
-        <v>46134</v>
+        <v>46303</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>119</v>
       </c>
       <c r="I44" s="7">
-        <v>71964</v>
+        <v>67638</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>174</v>
       </c>
       <c r="N44" s="7">
-        <v>118098</v>
+        <v>113941</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,46 +4170,46 @@
         <v>134</v>
       </c>
       <c r="D45" s="7">
-        <v>126416</v>
+        <v>118932</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H45" s="7">
         <v>74</v>
       </c>
       <c r="I45" s="7">
-        <v>43113</v>
+        <v>39727</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="M45" s="7">
         <v>208</v>
       </c>
       <c r="N45" s="7">
-        <v>169529</v>
+        <v>158659</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,46 +4221,46 @@
         <v>59</v>
       </c>
       <c r="D46" s="7">
-        <v>52887</v>
+        <v>48883</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
       </c>
       <c r="I46" s="7">
-        <v>17343</v>
+        <v>15947</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>86</v>
       </c>
       <c r="N46" s="7">
-        <v>70230</v>
+        <v>64830</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,46 +4272,46 @@
         <v>28</v>
       </c>
       <c r="D47" s="7">
-        <v>26817</v>
+        <v>24727</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
       </c>
       <c r="I47" s="7">
-        <v>4636</v>
+        <v>4249</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M47" s="7">
         <v>35</v>
       </c>
       <c r="N47" s="7">
-        <v>31453</v>
+        <v>28976</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,46 +4323,46 @@
         <v>7</v>
       </c>
       <c r="D48" s="7">
-        <v>6117</v>
+        <v>5679</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H48" s="7">
         <v>3</v>
       </c>
       <c r="I48" s="7">
-        <v>1865</v>
+        <v>1671</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M48" s="7">
         <v>10</v>
       </c>
       <c r="N48" s="7">
-        <v>7982</v>
+        <v>7350</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,46 +4374,46 @@
         <v>9</v>
       </c>
       <c r="D49" s="7">
-        <v>8525</v>
+        <v>7719</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H49" s="7">
         <v>4</v>
       </c>
       <c r="I49" s="7">
-        <v>2275</v>
+        <v>2051</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M49" s="7">
         <v>13</v>
       </c>
       <c r="N49" s="7">
-        <v>10800</v>
+        <v>9770</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,46 +4425,46 @@
         <v>3</v>
       </c>
       <c r="D50" s="7">
-        <v>2230</v>
+        <v>2123</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
       </c>
       <c r="I50" s="7">
-        <v>1307</v>
+        <v>1236</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
       </c>
       <c r="N50" s="7">
-        <v>3537</v>
+        <v>3359</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,16 +4476,16 @@
         <v>4</v>
       </c>
       <c r="D51" s="7">
-        <v>3704</v>
+        <v>3616</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -4380,22 +4500,22 @@
         <v>72</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
       </c>
       <c r="N51" s="7">
-        <v>3704</v>
+        <v>3616</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,46 +4527,46 @@
         <v>4</v>
       </c>
       <c r="D52" s="7">
-        <v>3889</v>
+        <v>3580</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
       </c>
       <c r="I52" s="7">
-        <v>1310</v>
+        <v>1160</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M52" s="7">
         <v>6</v>
       </c>
       <c r="N52" s="7">
-        <v>5199</v>
+        <v>4740</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4578,7 @@
         <v>303</v>
       </c>
       <c r="D53" s="7">
-        <v>276719</v>
+        <v>261562</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>89</v>
@@ -4473,7 +4593,7 @@
         <v>238</v>
       </c>
       <c r="I53" s="7">
-        <v>143813</v>
+        <v>133678</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>89</v>
@@ -4488,7 +4608,7 @@
         <v>541</v>
       </c>
       <c r="N53" s="7">
-        <v>420532</v>
+        <v>395240</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>89</v>
@@ -4502,55 +4622,55 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="7">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D54" s="7">
-        <v>83140</v>
+        <v>49197</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H54" s="7">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="I54" s="7">
-        <v>170038</v>
+        <v>246193</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M54" s="7">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="N54" s="7">
-        <v>253177</v>
+        <v>295389</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,49 +4679,49 @@
         <v>20</v>
       </c>
       <c r="C55" s="7">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D55" s="7">
-        <v>149468</v>
+        <v>88013</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H55" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I55" s="7">
-        <v>33855</v>
+        <v>23209</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M55" s="7">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="N55" s="7">
-        <v>183323</v>
+        <v>111221</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,49 +4730,49 @@
         <v>30</v>
       </c>
       <c r="C56" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D56" s="7">
-        <v>39156</v>
+        <v>27492</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H56" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I56" s="7">
-        <v>8537</v>
+        <v>4804</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>365</v>
+        <v>85</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7">
+        <v>54</v>
+      </c>
+      <c r="N56" s="7">
+        <v>32296</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M56" s="7">
-        <v>73</v>
-      </c>
-      <c r="N56" s="7">
-        <v>47692</v>
-      </c>
-      <c r="O56" s="7" t="s">
+      <c r="P56" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,10 +4781,10 @@
         <v>40</v>
       </c>
       <c r="C57" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D57" s="7">
-        <v>12632</v>
+        <v>9245</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>370</v>
@@ -4676,34 +4796,34 @@
         <v>372</v>
       </c>
       <c r="H57" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57" s="7">
-        <v>3138</v>
+        <v>2469</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M57" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N57" s="7">
-        <v>15769</v>
+        <v>11714</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,49 +4832,49 @@
         <v>50</v>
       </c>
       <c r="C58" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" s="7">
-        <v>5495</v>
+        <v>3959</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>83</v>
+        <v>380</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>631</v>
+        <v>542</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>377</v>
+        <v>199</v>
       </c>
       <c r="M58" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N58" s="7">
-        <v>6126</v>
+        <v>4502</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,49 +4883,49 @@
         <v>60</v>
       </c>
       <c r="C59" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="7">
-        <v>4943</v>
+        <v>4547</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H59" s="7">
         <v>4</v>
       </c>
       <c r="I59" s="7">
-        <v>2322</v>
+        <v>2074</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M59" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N59" s="7">
-        <v>7265</v>
+        <v>6621</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,46 +4937,46 @@
         <v>3</v>
       </c>
       <c r="D60" s="7">
-        <v>1688</v>
+        <v>1549</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
       </c>
       <c r="N60" s="7">
-        <v>2179</v>
+        <v>2003</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,19 +4985,19 @@
         <v>78</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4892,22 +5012,22 @@
         <v>72</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="M61" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="7">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>392</v>
+        <v>71</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,49 +5036,49 @@
         <v>84</v>
       </c>
       <c r="C62" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
-        <v>6091</v>
+        <v>3194</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7">
+        <v>407</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H62" s="7">
-        <v>3</v>
-      </c>
-      <c r="I62" s="7">
-        <v>3788</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L62" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M62" s="7">
+        <v>6</v>
+      </c>
+      <c r="N62" s="7">
+        <v>3601</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="M62" s="7">
-        <v>12</v>
-      </c>
-      <c r="N62" s="7">
-        <v>9879</v>
-      </c>
-      <c r="O62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,10 +5087,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>447</v>
+        <v>284</v>
       </c>
       <c r="D63" s="7">
-        <v>303843</v>
+        <v>187196</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>89</v>
@@ -4982,10 +5102,10 @@
         <v>89</v>
       </c>
       <c r="H63" s="7">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="I63" s="7">
-        <v>222799</v>
+        <v>280153</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>89</v>
@@ -4997,10 +5117,10 @@
         <v>89</v>
       </c>
       <c r="M63" s="7">
-        <v>653</v>
+        <v>436</v>
       </c>
       <c r="N63" s="7">
-        <v>526641</v>
+        <v>467348</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>89</v>
@@ -5014,16 +5134,16 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>399</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="D64" s="7">
-        <v>332365</v>
+        <v>31792</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>400</v>
@@ -5035,10 +5155,10 @@
         <v>402</v>
       </c>
       <c r="H64" s="7">
-        <v>521</v>
+        <v>29</v>
       </c>
       <c r="I64" s="7">
-        <v>471221</v>
+        <v>14493</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>403</v>
@@ -5050,10 +5170,10 @@
         <v>405</v>
       </c>
       <c r="M64" s="7">
-        <v>859</v>
+        <v>81</v>
       </c>
       <c r="N64" s="7">
-        <v>803586</v>
+        <v>46285</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>406</v>
@@ -5071,10 +5191,10 @@
         <v>20</v>
       </c>
       <c r="C65" s="7">
-        <v>681</v>
+        <v>86</v>
       </c>
       <c r="D65" s="7">
-        <v>663446</v>
+        <v>50669</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>409</v>
@@ -5086,10 +5206,10 @@
         <v>411</v>
       </c>
       <c r="H65" s="7">
-        <v>396</v>
+        <v>16</v>
       </c>
       <c r="I65" s="7">
-        <v>287385</v>
+        <v>7399</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>412</v>
@@ -5101,10 +5221,10 @@
         <v>414</v>
       </c>
       <c r="M65" s="7">
-        <v>1077</v>
+        <v>102</v>
       </c>
       <c r="N65" s="7">
-        <v>950831</v>
+        <v>58068</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>415</v>
@@ -5122,10 +5242,10 @@
         <v>30</v>
       </c>
       <c r="C66" s="7">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="D66" s="7">
-        <v>343022</v>
+        <v>8438</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>418</v>
@@ -5137,34 +5257,34 @@
         <v>420</v>
       </c>
       <c r="H66" s="7">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="I66" s="7">
-        <v>141885</v>
+        <v>2766</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>421</v>
       </c>
       <c r="K66" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="M66" s="7">
+        <v>19</v>
+      </c>
+      <c r="N66" s="7">
+        <v>11204</v>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="M66" s="7">
-        <v>487</v>
-      </c>
-      <c r="N66" s="7">
-        <v>484907</v>
-      </c>
-      <c r="O66" s="7" t="s">
+      <c r="P66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,49 +5293,49 @@
         <v>40</v>
       </c>
       <c r="C67" s="7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D67" s="7">
-        <v>116129</v>
+        <v>2549</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>424</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M67" s="7">
+        <v>5</v>
+      </c>
+      <c r="N67" s="7">
+        <v>2973</v>
+      </c>
+      <c r="O67" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="P67" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="H67" s="7">
-        <v>43</v>
-      </c>
-      <c r="I67" s="7">
-        <v>31324</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M67" s="7">
-        <v>143</v>
-      </c>
-      <c r="N67" s="7">
-        <v>147453</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,49 +5344,49 @@
         <v>50</v>
       </c>
       <c r="C68" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7">
-        <v>65450</v>
+        <v>1151</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>435</v>
+        <v>71</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>255</v>
+        <v>430</v>
       </c>
       <c r="H68" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7">
-        <v>27377</v>
+        <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>436</v>
+        <v>71</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="M68" s="7">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="N68" s="7">
-        <v>92827</v>
+        <v>1151</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>439</v>
+        <v>71</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5395,49 @@
         <v>60</v>
       </c>
       <c r="C69" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>55375</v>
+        <v>161</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>442</v>
+        <v>71</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="H69" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>23191</v>
+        <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>445</v>
+        <v>266</v>
       </c>
       <c r="M69" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="N69" s="7">
-        <v>78566</v>
+        <v>161</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>447</v>
+        <v>71</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>365</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5446,49 @@
         <v>70</v>
       </c>
       <c r="C70" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D70" s="7">
-        <v>5989</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>448</v>
+        <v>72</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="H70" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>450</v>
+        <v>71</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="M70" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N70" s="7">
-        <v>10511</v>
+        <v>0</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>387</v>
+        <v>72</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>207</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,19 +5497,19 @@
         <v>78</v>
       </c>
       <c r="C71" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>6731</v>
+        <v>1094</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5404,22 +5524,22 @@
         <v>72</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M71" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N71" s="7">
-        <v>6731</v>
+        <v>1094</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>454</v>
+        <v>71</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,49 +5548,49 @@
         <v>84</v>
       </c>
       <c r="C72" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D72" s="7">
-        <v>20377</v>
+        <v>2684</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
       <c r="H72" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I72" s="7">
-        <v>6731</v>
+        <v>1738</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="M72" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N72" s="7">
-        <v>27108</v>
+        <v>4423</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>276</v>
+        <v>441</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>207</v>
+        <v>442</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,63 +5599,576 @@
         <v>3</v>
       </c>
       <c r="C73" s="7">
+        <v>163</v>
+      </c>
+      <c r="D73" s="7">
+        <v>98539</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="7">
+        <v>54</v>
+      </c>
+      <c r="I73" s="7">
+        <v>26820</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M73" s="7">
+        <v>217</v>
+      </c>
+      <c r="N73" s="7">
+        <v>125359</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="7">
+        <v>338</v>
+      </c>
+      <c r="D74" s="7">
+        <v>345748</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H74" s="7">
+        <v>521</v>
+      </c>
+      <c r="I74" s="7">
+        <v>548737</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M74" s="7">
+        <v>859</v>
+      </c>
+      <c r="N74" s="7">
+        <v>894485</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="7">
+        <v>681</v>
+      </c>
+      <c r="D75" s="7">
+        <v>637828</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H75" s="7">
+        <v>396</v>
+      </c>
+      <c r="I75" s="7">
+        <v>262191</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1077</v>
+      </c>
+      <c r="N75" s="7">
+        <v>900019</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="7">
+        <v>315</v>
+      </c>
+      <c r="D76" s="7">
+        <v>326676</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H76" s="7">
+        <v>172</v>
+      </c>
+      <c r="I76" s="7">
+        <v>129762</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M76" s="7">
+        <v>487</v>
+      </c>
+      <c r="N76" s="7">
+        <v>456438</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="7">
+        <v>100</v>
+      </c>
+      <c r="D77" s="7">
+        <v>116683</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H77" s="7">
+        <v>43</v>
+      </c>
+      <c r="I77" s="7">
+        <v>28964</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M77" s="7">
+        <v>143</v>
+      </c>
+      <c r="N77" s="7">
+        <v>145647</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="7">
+        <v>59</v>
+      </c>
+      <c r="D78" s="7">
+        <v>61524</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H78" s="7">
+        <v>30</v>
+      </c>
+      <c r="I78" s="7">
+        <v>25222</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="M78" s="7">
+        <v>89</v>
+      </c>
+      <c r="N78" s="7">
+        <v>86746</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="7">
+        <v>48</v>
+      </c>
+      <c r="D79" s="7">
+        <v>51811</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H79" s="7">
+        <v>26</v>
+      </c>
+      <c r="I79" s="7">
+        <v>20863</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M79" s="7">
+        <v>74</v>
+      </c>
+      <c r="N79" s="7">
+        <v>72673</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="7">
+        <v>8</v>
+      </c>
+      <c r="D80" s="7">
+        <v>5554</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H80" s="7">
+        <v>6</v>
+      </c>
+      <c r="I80" s="7">
+        <v>3933</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M80" s="7">
+        <v>14</v>
+      </c>
+      <c r="N80" s="7">
+        <v>9487</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="7">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7">
+        <v>6265</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M81" s="7">
+        <v>6</v>
+      </c>
+      <c r="N81" s="7">
+        <v>6265</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="7">
+        <v>23</v>
+      </c>
+      <c r="D82" s="7">
+        <v>18957</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H82" s="7">
+        <v>7</v>
+      </c>
+      <c r="I82" s="7">
+        <v>4696</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="M82" s="7">
+        <v>30</v>
+      </c>
+      <c r="N82" s="7">
+        <v>23653</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
         <v>1578</v>
       </c>
-      <c r="D73" s="7">
-        <v>1608884</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" s="7">
+      <c r="D83" s="7">
+        <v>1571044</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="7">
         <v>1201</v>
       </c>
-      <c r="I73" s="7">
-        <v>993636</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M73" s="7">
+      <c r="I83" s="7">
+        <v>1024368</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" s="7">
         <v>2779</v>
       </c>
-      <c r="N73" s="7">
-        <v>2602520</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>460</v>
+      <c r="N83" s="7">
+        <v>2595413</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
